--- a/Development and Quality Assurance/Development/Issue Log.xlsx
+++ b/Development and Quality Assurance/Development/Issue Log.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2aa4bbdad9a9e3fb/RnD16Bit/Development and Quality Assurance/Development/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nguyenquan/Documents/RnD_Drone/RnD16Bit/Development and Quality Assurance/Development/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="307" documentId="8_{ADA53E62-87D9-42DA-9F03-B07494306F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2A049F1B-E616-4550-9A61-D91FDE052609}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E084C0DF-7A23-CF4B-ADC3-015EA8CF0B77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{76B6DACE-C34E-4DC9-A3C2-B6D440812EDF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{76B6DACE-C34E-4DC9-A3C2-B6D440812EDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Issue Log" sheetId="1" r:id="rId1"/>
@@ -235,7 +235,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="150">
   <si>
     <t>ISSUE MANAGEMENT LOG</t>
   </si>
@@ -709,19 +709,125 @@
     <t>Bypass GPS requirement in drone flying</t>
   </si>
   <si>
-    <t>RC controller need to be present to arm the Drone</t>
-  </si>
-  <si>
-    <t>Can not effectively control the drone or its movement without understanding its telemetry</t>
-  </si>
-  <si>
     <t>HV002</t>
   </si>
   <si>
-    <t>GPS module is required even for Indoor drone.</t>
-  </si>
-  <si>
     <t>Non-GPS flying is not available with most ArduPilot Drone. Even with SITL drones</t>
+  </si>
+  <si>
+    <t>Trouble with communication between receiver and the flight controller (FC) due to wrong output signal ( PPM ) of the receiver</t>
+  </si>
+  <si>
+    <t>Fail to control the drone
+Prevent testing of communication between RC transmitter and flight control</t>
+  </si>
+  <si>
+    <t>Purchase new receiver with have compatible signal output - SBUS, to FC</t>
+  </si>
+  <si>
+    <t>One new receiver was purchased</t>
+  </si>
+  <si>
+    <t>ESC broke and need replacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing of motors
+Preventing completion of drone assembly 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchase new ESC </t>
+  </si>
+  <si>
+    <t>Two new ESCs was purchased</t>
+  </si>
+  <si>
+    <t>HV003</t>
+  </si>
+  <si>
+    <t>Drone flight control not configurated properply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent the drone from arming
+</t>
+  </si>
+  <si>
+    <t>Research possible solution from online resources</t>
+  </si>
+  <si>
+    <t>Improper configured parameters was detected and adjust acordingly</t>
+  </si>
+  <si>
+    <t>HV004</t>
+  </si>
+  <si>
+    <t>Propeller spiing our of sync causing the the 
+drone to slightly tilt while operating</t>
+  </si>
+  <si>
+    <t>Check the signal output of the propeller</t>
+  </si>
+  <si>
+    <t>Adjust signal output from the receiver of the firmware</t>
+  </si>
+  <si>
+    <t>HA001</t>
+  </si>
+  <si>
+    <t>Problems communicating drone with GCS using WIFI</t>
+  </si>
+  <si>
+    <t>Intergration of custom automation code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change the IP of connection configuration stored in the firmware to the IP of GCS </t>
+  </si>
+  <si>
+    <t>Drone connected to GCS properly</t>
+  </si>
+  <si>
+    <t>HA002</t>
+  </si>
+  <si>
+    <t>Mission planner GPS requirements prevent the drone from arming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preventing the drone from arming
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turn off the GPS parameter stored in the drone firmware </t>
+  </si>
+  <si>
+    <t>Sucessfully toggle the GPS requirement off</t>
+  </si>
+  <si>
+    <t>HA003</t>
+  </si>
+  <si>
+    <t>ESC not receiving signal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prevent the motor from running
+</t>
+  </si>
+  <si>
+    <t>Reconfigure the value of ESC output in FC</t>
+  </si>
+  <si>
+    <t>Four ESCs received signals from the FC properly</t>
+  </si>
+  <si>
+    <t>HA004</t>
+  </si>
+  <si>
+    <t>EKF parameter not configurable which preventing the drone from arming</t>
+  </si>
+  <si>
+    <t>Prevent drone from arming</t>
+  </si>
+  <si>
+    <t>Applying fixes from Navio2 documentation and related resources</t>
   </si>
 </sst>
 </file>
@@ -731,7 +837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,6 +970,19 @@
       <sz val="11"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1023,17 +1142,8 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1053,15 +1163,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1155,51 +1256,767 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="104">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1602,769 +2419,763 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C85903E-6735-4298-A7DE-DB2DDE63A349}">
   <dimension ref="A1:AI39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="31" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="32" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="32" customWidth="1"/>
-    <col min="4" max="4" width="41.5703125" style="33" customWidth="1"/>
-    <col min="5" max="5" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="41.5703125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" style="33" customWidth="1"/>
-    <col min="9" max="9" width="13" style="34" customWidth="1"/>
-    <col min="10" max="10" width="54.140625" style="35" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" style="8" customWidth="1"/>
-    <col min="12" max="12" width="39" style="9" customWidth="1"/>
-    <col min="13" max="35" width="9.140625" style="10"/>
+    <col min="1" max="1" width="8.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="41.5" style="27" customWidth="1"/>
+    <col min="5" max="5" width="11" style="50" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="27" customWidth="1"/>
+    <col min="7" max="7" width="41.5" style="27" customWidth="1"/>
+    <col min="8" max="8" width="35.6640625" style="27" customWidth="1"/>
+    <col min="9" max="9" width="13" style="28" customWidth="1"/>
+    <col min="10" max="10" width="54.1640625" style="29" customWidth="1"/>
+    <col min="11" max="11" width="17.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="39" style="6" customWidth="1"/>
+    <col min="13" max="35" width="9.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="57"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:11" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="E2" s="49"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="11" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="16" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="57"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" s="23" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="E3" s="49"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="17" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="G4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="22" t="s">
+      <c r="I4" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="22" t="s">
+      <c r="K4" s="16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="25"/>
-      <c r="F5" s="29" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="60" t="s">
+      <c r="H5" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="26" t="s">
+      <c r="I5" s="21"/>
+      <c r="J5" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="K5" s="60"/>
-    </row>
-    <row r="6" spans="1:11" s="28" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="K5" s="52"/>
+    </row>
+    <row r="6" spans="1:11" s="22" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="25"/>
-      <c r="F6" s="29" t="s">
+      <c r="E6" s="19"/>
+      <c r="F6" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="26" t="s">
+      <c r="H6" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="K6" s="29"/>
-    </row>
-    <row r="7" spans="1:11" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="K6" s="23"/>
+    </row>
+    <row r="7" spans="1:11" s="18" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="25"/>
-      <c r="F7" s="29" t="s">
+      <c r="E7" s="19"/>
+      <c r="F7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="26" t="s">
+      <c r="G7" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="26" t="s">
+      <c r="I7" s="21"/>
+      <c r="J7" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="K7" s="61"/>
-    </row>
-    <row r="8" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="K7" s="53"/>
+    </row>
+    <row r="8" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="25"/>
-      <c r="F8" s="29" t="s">
+      <c r="E8" s="19"/>
+      <c r="F8" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="26" t="s">
+      <c r="G8" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="26" t="s">
+      <c r="H8" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="26" t="s">
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="K8" s="61"/>
-    </row>
-    <row r="9" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="K8" s="53"/>
+    </row>
+    <row r="9" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="25"/>
-      <c r="F9" s="29" t="s">
+      <c r="E9" s="19"/>
+      <c r="F9" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="26" t="s">
+      <c r="G9" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="H9" s="26" t="s">
+      <c r="H9" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="26" t="s">
+      <c r="I9" s="21"/>
+      <c r="J9" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="K9" s="61"/>
-    </row>
-    <row r="10" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="K9" s="53"/>
+    </row>
+    <row r="10" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="29" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="26" t="s">
+      <c r="G10" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="26" t="s">
+      <c r="H10" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="I10" s="27"/>
-      <c r="J10" s="26" t="s">
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="K10" s="61"/>
-    </row>
-    <row r="11" spans="1:11" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="K10" s="53"/>
+    </row>
+    <row r="11" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="29" t="s">
+      <c r="E11" s="19"/>
+      <c r="F11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="26" t="s">
+      <c r="G11" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="I11" s="27"/>
-      <c r="J11" s="26" t="s">
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="K11" s="61"/>
-    </row>
-    <row r="12" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="K11" s="53"/>
+    </row>
+    <row r="12" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="25"/>
-      <c r="F12" s="29" t="s">
+      <c r="E12" s="19"/>
+      <c r="F12" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="26" t="s">
+      <c r="G12" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="61"/>
-    </row>
-    <row r="13" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="53"/>
+    </row>
+    <row r="13" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="25"/>
-      <c r="F13" s="29" t="s">
+      <c r="E13" s="19"/>
+      <c r="F13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="I13" s="27"/>
-      <c r="J13" s="26" t="s">
+      <c r="I13" s="21"/>
+      <c r="J13" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="K13" s="61"/>
-    </row>
-    <row r="14" spans="1:11" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="K13" s="53"/>
+    </row>
+    <row r="14" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="25"/>
-      <c r="F14" s="29" t="s">
+      <c r="E14" s="19"/>
+      <c r="F14" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="26" t="s">
+      <c r="G14" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="H14" s="26" t="s">
+      <c r="H14" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="26" t="s">
+      <c r="I14" s="21"/>
+      <c r="J14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="K14" s="61"/>
-    </row>
-    <row r="15" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="K14" s="53"/>
+    </row>
+    <row r="15" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="25"/>
-      <c r="F15" s="29" t="s">
+      <c r="E15" s="19"/>
+      <c r="F15" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G15" s="26" t="s">
+      <c r="G15" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="I15" s="27"/>
-      <c r="J15" s="26" t="s">
+      <c r="I15" s="21"/>
+      <c r="J15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="K15" s="61"/>
-    </row>
-    <row r="16" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="K15" s="53"/>
+    </row>
+    <row r="16" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="29" t="s">
+      <c r="E16" s="19"/>
+      <c r="F16" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="26" t="s">
+      <c r="G16" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="26" t="s">
+      <c r="H16" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="I16" s="27"/>
-      <c r="J16" s="26" t="s">
+      <c r="I16" s="21"/>
+      <c r="J16" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="K16" s="61"/>
-    </row>
-    <row r="17" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+      <c r="K16" s="53"/>
+    </row>
+    <row r="17" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="19"/>
+      <c r="F17" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G17" s="26" t="s">
+      <c r="G17" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="I17" s="27"/>
-      <c r="J17" s="26" t="s">
+      <c r="I17" s="21"/>
+      <c r="J17" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="K17" s="61"/>
-    </row>
-    <row r="18" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+      <c r="K17" s="53"/>
+    </row>
+    <row r="18" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="24" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="21"/>
+      <c r="J18" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="53"/>
+    </row>
+    <row r="19" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A19" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H19" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="E18" s="25"/>
-      <c r="F18" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="I18" s="27"/>
-      <c r="J18" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="K18" s="61"/>
-    </row>
-    <row r="19" spans="1:11" s="24" customFormat="1" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" s="25" t="s">
+      <c r="I19" s="21"/>
+      <c r="J19" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="K19" s="52"/>
+    </row>
+    <row r="20" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A20" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="62" t="s">
+        <v>118</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="I20" s="21"/>
+      <c r="J20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="K20" s="53"/>
+    </row>
+    <row r="21" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="62" t="s">
+        <v>123</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I21" s="21"/>
+      <c r="J21" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="K21" s="53"/>
+    </row>
+    <row r="22" spans="1:11" s="18" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="A22" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="63" t="s">
+        <v>128</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="I22" s="21"/>
+      <c r="J22" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="K22" s="53"/>
+    </row>
+    <row r="23" spans="1:11" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="I23" s="21"/>
+      <c r="J23" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="K23" s="53"/>
+    </row>
+    <row r="24" spans="1:11" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="I24" s="21"/>
+      <c r="J24" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" s="53"/>
+    </row>
+    <row r="25" spans="1:11" s="18" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+      <c r="A25" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="63" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="21"/>
+      <c r="J25" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="E19" s="25"/>
-      <c r="F19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" s="26"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="61"/>
-    </row>
-    <row r="20" spans="1:11" s="24" customFormat="1" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="E20" s="25"/>
-      <c r="F20" s="29" t="s">
+      <c r="D26" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E26" s="19"/>
+      <c r="F26" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="G20" s="26" t="s">
-        <v>105</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="61"/>
-    </row>
-    <row r="21" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="61"/>
-    </row>
-    <row r="22" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="30"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="27"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="61"/>
-    </row>
-    <row r="23" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="30"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="61"/>
-    </row>
-    <row r="24" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="30"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="61"/>
-    </row>
-    <row r="25" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="61"/>
-    </row>
-    <row r="26" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="61"/>
-    </row>
-    <row r="27" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="61"/>
-    </row>
-    <row r="28" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="61"/>
-    </row>
-    <row r="29" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="61"/>
-    </row>
-    <row r="30" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="27"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="61"/>
-    </row>
-    <row r="31" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="61"/>
-    </row>
-    <row r="32" spans="1:11" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="61"/>
-    </row>
-    <row r="33" spans="1:12" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="29"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="61"/>
-    </row>
-    <row r="34" spans="1:12" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="61"/>
-    </row>
-    <row r="35" spans="1:12" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="61"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K36" s="9"/>
-      <c r="L36" s="10"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="K37" s="9"/>
-      <c r="L37" s="10"/>
-    </row>
-    <row r="39" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D39" s="36"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="G26" s="64" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="I26" s="21"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="53"/>
+    </row>
+    <row r="27" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:11" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="33" spans="4:12" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="4:12" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="4:12" s="18" customFormat="1" ht="14" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="K36" s="6"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="K37" s="6"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="39" spans="4:12" ht="19" x14ac:dyDescent="0.25">
+      <c r="D39" s="30"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2373,44 +3184,382 @@
     <mergeCell ref="A3:C3"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C38:C65537 B4:C35">
-    <cfRule type="cellIs" dxfId="11" priority="4" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="C38:C65537 B4:C18">
+    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="97" stopIfTrue="1" operator="equal">
       <formula>"Critical"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="98" stopIfTrue="1" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="99" stopIfTrue="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:F35 I2:I3">
-    <cfRule type="cellIs" dxfId="7" priority="8" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="F4:F18 I2:I3">
+    <cfRule type="cellIs" dxfId="99" priority="100" stopIfTrue="1" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B35">
-    <cfRule type="cellIs" dxfId="6" priority="1" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="B4:B18">
+    <cfRule type="cellIs" dxfId="98" priority="93" stopIfTrue="1" operator="equal">
       <formula>"Work in progress"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="94" stopIfTrue="1" operator="equal">
       <formula>"Open"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="95" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="cellIs" dxfId="95" priority="88" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="94" priority="89" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="93" priority="90" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="91" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" dxfId="91" priority="92" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="cellIs" dxfId="90" priority="85" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="86" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="87" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="87" priority="80" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="81" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="82" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="83" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" dxfId="83" priority="84" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20">
+    <cfRule type="cellIs" dxfId="82" priority="77" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="78" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="80" priority="79" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20">
+    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="75" priority="68" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="69" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="70" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="72" priority="71" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="cellIs" dxfId="71" priority="72" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21">
+    <cfRule type="cellIs" dxfId="70" priority="65" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="66" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="67" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="67" priority="60" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="66" priority="61" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="62" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="63" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="cellIs" dxfId="63" priority="64" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22">
+    <cfRule type="cellIs" dxfId="62" priority="57" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="58" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="59" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="cellIs" dxfId="59" priority="53" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="54" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="55" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="56" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="55" priority="48" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="49" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="50" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="51" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="51" priority="52" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23">
+    <cfRule type="cellIs" dxfId="50" priority="45" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="46" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="47" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="cellIs" dxfId="47" priority="25" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="26" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="27" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="cellIs" dxfId="43" priority="41" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="42" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="43" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="44" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21">
+    <cfRule type="cellIs" dxfId="39" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="40" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="35" priority="32" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="33" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="34" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="35" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="31" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24">
+    <cfRule type="cellIs" dxfId="30" priority="29" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="30" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="31" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="16" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="23" priority="20" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="21" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="22" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="23" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="19" priority="24" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="cellIs" dxfId="18" priority="17" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="18" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="19" stopIfTrue="1" operator="equal">
+      <formula>"Closed"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="cellIs" dxfId="15" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="11" priority="8" stopIfTrue="1" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="9" stopIfTrue="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="11" stopIfTrue="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Work in progress"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Open"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Closed"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B35" xr:uid="{E90ED646-404E-4EF6-BD7C-C87029488E52}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B26" xr:uid="{E90ED646-404E-4EF6-BD7C-C87029488E52}">
       <formula1>"Open,Work In Progress,Closed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C35" xr:uid="{C8E85E00-096C-4CAD-BA04-52C95CF75945}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5:C26" xr:uid="{C8E85E00-096C-4CAD-BA04-52C95CF75945}">
       <formula1>"Critical,High,Medium,Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F35" xr:uid="{16F0B133-75D4-4DB8-9ECD-893E22FFF89F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F5:F26" xr:uid="{16F0B133-75D4-4DB8-9ECD-893E22FFF89F}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2427,141 +3576,141 @@
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" style="38" customWidth="1"/>
-    <col min="2" max="2" width="77" style="38" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="38" customWidth="1"/>
-    <col min="4" max="4" width="40" style="38" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="38" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="38"/>
+    <col min="1" max="1" width="30.5" style="32" customWidth="1"/>
+    <col min="2" max="2" width="77" style="32" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="32" customWidth="1"/>
+    <col min="4" max="4" width="40" style="32" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" style="32" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="32"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C5" s="40" t="s">
+    <row r="5" spans="3:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="40" t="s">
+      <c r="D5" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="3:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C6" s="52" t="s">
+    <row r="6" spans="3:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C6" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="45" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="3:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C7" s="52" t="s">
+    <row r="7" spans="3:4" ht="19" x14ac:dyDescent="0.15">
+      <c r="C7" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="3:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C10" s="40" t="s">
+    <row r="8" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="3:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="40" t="s">
+      <c r="D10" s="34" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C11" s="52" t="s">
+    <row r="11" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C11" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="52" t="s">
+    <row r="12" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="52" t="s">
+    <row r="13" spans="3:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C13" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="55" t="s">
+      <c r="D13" s="47" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="3:4" s="39" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="C14" s="44"/>
-      <c r="D14" s="45"/>
-    </row>
-    <row r="15" spans="3:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C15" s="49" t="s">
+    <row r="14" spans="3:4" s="33" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="C14" s="38"/>
+      <c r="D14" s="39"/>
+    </row>
+    <row r="15" spans="3:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C15" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="50"/>
-    </row>
-    <row r="16" spans="3:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C16" s="46" t="s">
+      <c r="D15" s="61"/>
+    </row>
+    <row r="16" spans="3:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C16" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="C17" s="47" t="s">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C17" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="43" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-    </row>
-    <row r="19" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="40" t="s">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.15">
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="34" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
+    <row r="21" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="41" t="s">
+    <row r="22" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="37" t="s">
         <v>27</v>
       </c>
     </row>
